--- a/ProjectAbsenTelkom/Database/contoh data.xlsx
+++ b/ProjectAbsenTelkom/Database/contoh data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\Project_Absen_Telkom\ProjectAbsenTelkom\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F973ADFE-039B-4F29-ADBA-750D648942C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B03C41-FFAE-47B7-A555-03B8FF315244}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,7 +993,9 @@
       <c r="D44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
@@ -1006,7 +1008,9 @@
       <c r="D45" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="3"/>
+      <c r="E45" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
